--- a/DateBase/orders/Dang Nguyen_2025-3-11.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-3-11.xlsx
@@ -1290,6 +1290,9 @@
       <c r="G2" t="str">
         <v>045551271411827105108112051513.58.51712165842492545121015199111310192810211520512407284111159183113656120652256112801531206155930305161050101067655305113013011</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
